--- a/biology/Botanique/Salix_daphnoides/Salix_daphnoides.xlsx
+++ b/biology/Botanique/Salix_daphnoides/Salix_daphnoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix daphnoides, le saule faux daphné (ou encore saule pruineux, saule noir), est une espèce de plantes à fleurs de la famille des salicaceae. C'est un arbre atteignant 15 m de haut, présent en Europe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorce du tronc de Salix daphnoides est grise, avec des fissures longitudinales. Les feuilles sont alternes, lancéolées, finement dentées, de 4 à 10 cm de long et de largeur égale à 2,5 cm. Seules les jeunes feuilles sont légèrement velues mais deviennent rapidement glabres avec l'âge. Leur dessus est vert sombre avec un aspect brillant, tandis que le dessous est gris verdâtre à bleuté. Les chatons mesurent de 2 à 5 cm de long. La floraison se produit de mai à juillet.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix daphnoides se rencontre dans toute l'Europe jusqu'à l'étage subalpin. L'espèce préfère les sols humides, riches , apprécie le gravier et le sable des cours d'eau et des terres inondables, surtout en montagne.
 </t>
@@ -573,12 +589,14 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Salix daphnoides est décrite par Dominique Villars et publiée dans Prospectus de l'Histoire des Plantes de Dauphiné 51, en  1779[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Salix daphnoides est décrite par Dominique Villars et publiée dans Prospectus de l'Histoire des Plantes de Dauphiné 51, en  1779.
 Étymologie
-Salix, nom générique latin du saule[2].
-daphnoides: épithète latin qui signifie semblable  à Daphné[3].
+Salix, nom générique latin du saule.
+daphnoides: épithète latin qui signifie semblable  à Daphné.
 Synonymie
 Salix aglaja K.Koch
 Salix bigemmis Hoffm.
@@ -592,7 +610,7 @@
 Salix pulchra Wimm. &amp; Krause
 Salix reuteri Moretti
 Salix violacea G.Anderson ex Sm.
-Salix wimmeri A.Kern[4].</t>
+Salix wimmeri A.Kern.</t>
         </is>
       </c>
     </row>
